--- a/biology/Médecine/Fièvre_typhoïde/Fièvre_typhoïde.xlsx
+++ b/biology/Médecine/Fièvre_typhoïde/Fièvre_typhoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_typho%C3%AFde</t>
+          <t>Fièvre_typhoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fièvre typhoïde (du grec ancien : τῦφος / tûphos, « fumée, vapeur qui monte au cerveau ; orgueil ») ou typhus abdominal est une maladie infectieuse décrite en 1818 par Pierre Bretonneau, causée par une bactérie de la famille des entérobactéries, du genre des salmonelles, et plus précisément du sérotype Typhi de la sous-espèce Salmonella enterica subsp. enterica (ou bacille d'Eberth). L'infection causée par les sérotypes Paratyphi (A, B ou C) de S. enterica subsp. enterica est appelée fièvre paratyphoïde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_typho%C3%AFde</t>
+          <t>Fièvre_typhoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après l'Organisation mondiale de la santé, entre 11 et 21 millions de personnes en seraient atteintes chaque année dans le monde, et 128 000 à 161 000 en mourraient[1].
-De janvier à septembre 2013, une augmentation marquée dans les notifications des infections à Salmonella paratyphi A chez les voyageurs de retour du Cambodge s'est produite en France. Une enquête a révélé 35 cas sans source commune : 21 en France, 5 en Allemagne, 3 aux Pays-Bas, 1 en Norvège, 1 au Royaume-Uni, 4 en Nouvelle-Zélande[2].
-La contamination se fait par l'ingestion de viandes peu cuites, et de boissons ou aliments souillés par les selles d'une personne infectée, malade ou non (porteur sain). La typhoïde a rapidement régressé en France et en Europe à la suite de la javellisation de l'eau de boisson généralisée — du moins en ville — à partir de 1910[3].
-La maladie est quasiment absente des pays développés, mais reste fréquente dans les pays en développement d'Asie, d'Afrique et d'Amérique latine[4]. Le germe le plus souvent responsable reste Salmonella Typhi, près de dix fois plus fréquemment retrouvé que les Salmonella Paratyphi.
-Une particularité épidémiologique de ces infections est qu’il existe des porteurs sains de ces bactéries. En effet, après guérison d’une fièvre typhoïde chronique 2 à 5 % des individus continuent à héberger des Salmonella Typhi (essentiellement au niveau de la vésicule biliaire) qui sont excrétées épisodiquement dans les selles et qui peuvent être donc à l’origine de cas secondaires[4]. Mary Mallon, également connue sous le nom de « Mary Typhoïde » (Typhoid Mary), fut la première porteuse saine reconnue du bacille de la typhoïde.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après l'Organisation mondiale de la santé, entre 11 et 21 millions de personnes en seraient atteintes chaque année dans le monde, et 128 000 à 161 000 en mourraient.
+De janvier à septembre 2013, une augmentation marquée dans les notifications des infections à Salmonella paratyphi A chez les voyageurs de retour du Cambodge s'est produite en France. Une enquête a révélé 35 cas sans source commune : 21 en France, 5 en Allemagne, 3 aux Pays-Bas, 1 en Norvège, 1 au Royaume-Uni, 4 en Nouvelle-Zélande.
+La contamination se fait par l'ingestion de viandes peu cuites, et de boissons ou aliments souillés par les selles d'une personne infectée, malade ou non (porteur sain). La typhoïde a rapidement régressé en France et en Europe à la suite de la javellisation de l'eau de boisson généralisée — du moins en ville — à partir de 1910.
+La maladie est quasiment absente des pays développés, mais reste fréquente dans les pays en développement d'Asie, d'Afrique et d'Amérique latine. Le germe le plus souvent responsable reste Salmonella Typhi, près de dix fois plus fréquemment retrouvé que les Salmonella Paratyphi.
+Une particularité épidémiologique de ces infections est qu’il existe des porteurs sains de ces bactéries. En effet, après guérison d’une fièvre typhoïde chronique 2 à 5 % des individus continuent à héberger des Salmonella Typhi (essentiellement au niveau de la vésicule biliaire) qui sont excrétées épisodiquement dans les selles et qui peuvent être donc à l’origine de cas secondaires. Mary Mallon, également connue sous le nom de « Mary Typhoïde » (Typhoid Mary), fut la première porteuse saine reconnue du bacille de la typhoïde.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_typho%C3%AFde</t>
+          <t>Fièvre_typhoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Aspects cliniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quarante-huit heures après la contamination, survient une fièvre qui augmente progressivement atteignant 40 °C accompagnée de possible céphalée, asthénie, anorexie, insomnie. Cet épisode dure une dizaine de jours (8 à 15), et correspond à la période d'incubation, pendant laquelle il y a multiplication des salmonelles dans les ganglions mésentériques ; il précède la phase de dissémination du germe dans le sang (septicémie).
 Au début de la phase septicémique, on observe des troubles mineurs :
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_typho%C3%AFde</t>
+          <t>Fièvre_typhoïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Le diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le germe n'est retrouvé dans le sang (hémoculture) que dans 60 % des cas. Il peut être retrouvé de manière inconstante dans les selles et dans les urines.
 Le bilan sanguin standard ne montre que des anomalies non spécifiques : concentration habituellement normale des leucocytes (globules blancs) qui sont parfois diminués (leucopénie), parfois diminution du nombre de plaquettes sanguines, signalant des formes graves.
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_typho%C3%AFde</t>
+          <t>Fièvre_typhoïde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,24 +638,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traitement
-Le germe était initialement sensible au chloramphénicol, mais de nombreuses résistances apparurent dans les années 1970, et ce traitement, aux nombreux effets secondaires, a été progressivement abandonné. De même, des résistances à d'autres antibiotiques (cotrimoxazole et amoxicilline) sont apparues dans les années 1980.
-Une fois le malade hospitalisé et isolé, le traitement consiste en l'administration de fluoroquinolones de deuxième génération ou de ceftriaxone. La réhydratation, souvent par voie intraveineuse, est impérative pour compenser les pertes liquidiennes secondaires à la diarrhée. Un traitement contre la fièvre (antipyrétique) peut parfois être nécessaire. De nombreuses souches en Inde et au Pakistan sont actuellement résistantes aux fluoroquinolones de deuxième génération (ciprofloxacine) et à la ceftriaxone. En revanche, on ne connaît pas de résistance à l'azithromycine[5].
-Prévention
-Hygiène
-La prévention passe par l'amélioration des conditions d'hygiène dans les pays d'endémie et par la vaccination. Les visiteurs doivent se méfier de l'eau locale et de la nourriture crue.
-Il est important de respecter les mesures d’hygiène classiques : lavage fréquent des mains à l’eau et au savon, principalement après chaque passage aux toilettes et avant toute manipulation d’aliments.
-Dans l’entourage du malade : nécessité de dépister les porteurs sains par la pratique de coprocultures afin d’éviter une dissémination de l’infection, principalement chez les personnes travaillant dans le secteur agroalimentaire, en collectivités de jeunes enfants ainsi que chez le personnel soignant.
-Conseils supplémentaires aux voyageurs dans des zones endémiques : veiller à ne consommer que des aliments cuits et de l’eau minérale capsulée (décapsulée devant soi) ou de l’eau préalablement bouillie ou purifiée par adjonction de pastille de chlore[6].
-Vaccination
-En 1888, André Chantemesse (créant le sérum de Chantemesse) et Fernand Widal démontrent la possibilité d'un vaccin contre la typhoïde[7] qui sera développé par Sir Almroth Wright en 1896 (Pfeiffer lui en disputera l'antériorité[8]). Peu avant la Première Guerre mondiale, une loi du 28 mars 1914 impose la vaccination TAB (vaccination contre la typhoïde et les paratyphoïdes A et B) ; ce vaccin avait été mis au point en 1896 par Almroth Wright en Angleterre et en 1909 par André Chantemesse et Hyacinthe Vincent en France. Alexandre Besredka proposera une vaccinothérapie.
-Le vaccin contre la typhoïde a servi dans le passé[9], et encore récemment[10], comme agent de la pyrétothérapie.
-Les vaccins contre la typhoïde disponibles en France en 2014 sont des vaccins polyosidiques non conjugués (noms commerciaux : Typhim Vi et Typherix). Un vaccin combiné contre typhoïde et hépatite A existe également sous le nom de Tyavax.
-Ce vaccin injectable (une seule injection) confère une protection d’environ 70 % contre la fièvre typhoïde durant au moins trois ans. Il peut être administré à partir de l’âge de deux ans. Il est recommandé pour les voyageurs devant effectuer un séjour prolongé ou dans de mauvaises conditions, dans des pays où l’hygiène est précaire. Il est obligatoire en France en 2014 pour les personnels de laboratoire d’analyse de biologie médicale, visés par l’article L.3111-4 du code de la santé publique[6].
-En population générale, la vaccination systématique n’est recommandée en aucun point du territoire français ; elle ne pourrait être envisagée que dans des situations épidémiques locales particulières[6]. Toutefois, à l'époque où existait le 'service militaire' la vaccination était systématique pour les nouvelles recrues.
-Un vaccin vivant existe. La souche de Salmonella Typhi Ty21a est délétée pour la région aro A pour éliminer son caractère pathogène. Elle est auxotrophe. Le vaccin est commercialisé sous le nom de marque Vivotif®. Il est conditionné en gélules gastro-résistantes, et avalé par le vacciné. Il n'est utilisé que dans les pays du Sud.
-Déclaration obligatoire
-Cette maladie figure sur la liste des maladies infectieuses à déclaration obligatoire dans de nombreux pays dont l'Algérie, l'Allemagne, l'Autriche, la Belgique, le Canada, la France, le Liban, le Maroc, les Pays-Bas, la Tunisie et la Suisse.
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le germe était initialement sensible au chloramphénicol, mais de nombreuses résistances apparurent dans les années 1970, et ce traitement, aux nombreux effets secondaires, a été progressivement abandonné. De même, des résistances à d'autres antibiotiques (cotrimoxazole et amoxicilline) sont apparues dans les années 1980.
+Une fois le malade hospitalisé et isolé, le traitement consiste en l'administration de fluoroquinolones de deuxième génération ou de ceftriaxone. La réhydratation, souvent par voie intraveineuse, est impérative pour compenser les pertes liquidiennes secondaires à la diarrhée. Un traitement contre la fièvre (antipyrétique) peut parfois être nécessaire. De nombreuses souches en Inde et au Pakistan sont actuellement résistantes aux fluoroquinolones de deuxième génération (ciprofloxacine) et à la ceftriaxone. En revanche, on ne connaît pas de résistance à l'azithromycine.
 </t>
         </is>
       </c>
@@ -648,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_typho%C3%AFde</t>
+          <t>Fièvre_typhoïde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -663,10 +671,138 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Traitement et prévention</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prévention</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hygiène</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La prévention passe par l'amélioration des conditions d'hygiène dans les pays d'endémie et par la vaccination. Les visiteurs doivent se méfier de l'eau locale et de la nourriture crue.
+Il est important de respecter les mesures d’hygiène classiques : lavage fréquent des mains à l’eau et au savon, principalement après chaque passage aux toilettes et avant toute manipulation d’aliments.
+Dans l’entourage du malade : nécessité de dépister les porteurs sains par la pratique de coprocultures afin d’éviter une dissémination de l’infection, principalement chez les personnes travaillant dans le secteur agroalimentaire, en collectivités de jeunes enfants ainsi que chez le personnel soignant.
+Conseils supplémentaires aux voyageurs dans des zones endémiques : veiller à ne consommer que des aliments cuits et de l’eau minérale capsulée (décapsulée devant soi) ou de l’eau préalablement bouillie ou purifiée par adjonction de pastille de chlore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fièvre_typhoïde</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fi%C3%A8vre_typho%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Traitement et prévention</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prévention</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1888, André Chantemesse (créant le sérum de Chantemesse) et Fernand Widal démontrent la possibilité d'un vaccin contre la typhoïde qui sera développé par Sir Almroth Wright en 1896 (Pfeiffer lui en disputera l'antériorité). Peu avant la Première Guerre mondiale, une loi du 28 mars 1914 impose la vaccination TAB (vaccination contre la typhoïde et les paratyphoïdes A et B) ; ce vaccin avait été mis au point en 1896 par Almroth Wright en Angleterre et en 1909 par André Chantemesse et Hyacinthe Vincent en France. Alexandre Besredka proposera une vaccinothérapie.
+Le vaccin contre la typhoïde a servi dans le passé, et encore récemment, comme agent de la pyrétothérapie.
+Les vaccins contre la typhoïde disponibles en France en 2014 sont des vaccins polyosidiques non conjugués (noms commerciaux : Typhim Vi et Typherix). Un vaccin combiné contre typhoïde et hépatite A existe également sous le nom de Tyavax.
+Ce vaccin injectable (une seule injection) confère une protection d’environ 70 % contre la fièvre typhoïde durant au moins trois ans. Il peut être administré à partir de l’âge de deux ans. Il est recommandé pour les voyageurs devant effectuer un séjour prolongé ou dans de mauvaises conditions, dans des pays où l’hygiène est précaire. Il est obligatoire en France en 2014 pour les personnels de laboratoire d’analyse de biologie médicale, visés par l’article L.3111-4 du code de la santé publique.
+En population générale, la vaccination systématique n’est recommandée en aucun point du territoire français ; elle ne pourrait être envisagée que dans des situations épidémiques locales particulières. Toutefois, à l'époque où existait le 'service militaire' la vaccination était systématique pour les nouvelles recrues.
+Un vaccin vivant existe. La souche de Salmonella Typhi Ty21a est délétée pour la région aro A pour éliminer son caractère pathogène. Elle est auxotrophe. Le vaccin est commercialisé sous le nom de marque Vivotif®. Il est conditionné en gélules gastro-résistantes, et avalé par le vacciné. Il n'est utilisé que dans les pays du Sud.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fièvre_typhoïde</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fi%C3%A8vre_typho%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Traitement et prévention</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Déclaration obligatoire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette maladie figure sur la liste des maladies infectieuses à déclaration obligatoire dans de nombreux pays dont l'Algérie, l'Allemagne, l'Autriche, la Belgique, le Canada, la France, le Liban, le Maroc, les Pays-Bas, la Tunisie et la Suisse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fièvre_typhoïde</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fi%C3%A8vre_typho%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Personnalités notables mortes de fièvre typhoïde</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Louisa May Alcott
 Xavier Bichat
